--- a/motors.xlsx
+++ b/motors.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t/>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>More info</t>
+  </si>
+  <si>
+    <t>https://floatwheel.co/index.php?route=product/product&amp;path=84_89&amp;product_id=9913</t>
   </si>
   <si>
     <t>https://www.fungineers.us/products/superflux?variant=44001168588962</t>
@@ -648,7 +651,9 @@
       <c r="B5" s="3">
         <v>700</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>700</v>
+      </c>
       <c r="D5" s="3">
         <v>400</v>
       </c>
@@ -673,7 +678,9 @@
       <c r="B6" s="3">
         <v>1500</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>1500</v>
+      </c>
       <c r="D6" s="3">
         <v>700</v>
       </c>
@@ -698,7 +705,9 @@
       <c r="B7" s="3">
         <v>1500</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>1500</v>
+      </c>
       <c r="D7" s="3">
         <v>2000</v>
       </c>
@@ -742,7 +751,7 @@
         <v>180</v>
       </c>
       <c r="D9" s="3">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E9" s="3">
         <v>180</v>
@@ -777,8 +786,12 @@
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3">
+        <v>53</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -810,8 +823,8 @@
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>0</v>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>0</v>
@@ -820,21 +833,21 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -849,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>0</v>
@@ -863,7 +876,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
@@ -875,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>0</v>
@@ -892,13 +905,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1"/>
-    <hyperlink ref="G13" r:id="rId2"/>
-    <hyperlink ref="H13" r:id="rId3"/>
-    <hyperlink ref="I13" r:id="rId4"/>
-    <hyperlink ref="F14" r:id="rId5"/>
-    <hyperlink ref="G14" r:id="rId6"/>
-    <hyperlink ref="E15" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="G13" r:id="rId3"/>
+    <hyperlink ref="H13" r:id="rId4"/>
+    <hyperlink ref="I13" r:id="rId5"/>
+    <hyperlink ref="F14" r:id="rId6"/>
+    <hyperlink ref="G14" r:id="rId7"/>
+    <hyperlink ref="E15" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
